--- a/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_1_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.19670481299036</v>
+        <v>93.095583484917</v>
       </c>
       <c r="D2" t="n">
-        <v>1.399492002578645</v>
+        <v>1.577575447645279</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.00300766202257</v>
+        <v>91.90887080363589</v>
       </c>
       <c r="D3" t="n">
-        <v>1.703980092431865</v>
+        <v>1.536928939755648</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.15153183286773</v>
+        <v>90.63138821812871</v>
       </c>
       <c r="D4" t="n">
-        <v>1.836673477782918</v>
+        <v>1.525455288722155</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.56683794370774</v>
+        <v>89.71791789685247</v>
       </c>
       <c r="D5" t="n">
-        <v>1.801240065314261</v>
+        <v>1.424850184712239</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.83850317686368</v>
+        <v>88.85892103092166</v>
       </c>
       <c r="D6" t="n">
-        <v>1.576242830884456</v>
+        <v>1.492428074505018</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.54035666176588</v>
+        <v>87.89033701610053</v>
       </c>
       <c r="D7" t="n">
-        <v>1.703977154090214</v>
+        <v>1.692796851522614</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.54387363913968</v>
+        <v>86.6011754188913</v>
       </c>
       <c r="D8" t="n">
-        <v>1.538047866778652</v>
+        <v>1.313160853456523</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.52711451512236</v>
+        <v>85.86766073507864</v>
       </c>
       <c r="D9" t="n">
-        <v>1.588519754230466</v>
+        <v>1.455382348538425</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.72170381632371</v>
+        <v>84.46806340173386</v>
       </c>
       <c r="D10" t="n">
-        <v>1.668406156474975</v>
+        <v>1.651936060091329</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.38887107914043</v>
+        <v>83.30506356794749</v>
       </c>
       <c r="D11" t="n">
-        <v>1.65959287048268</v>
+        <v>1.543241958633488</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.38547415385521</v>
+        <v>82.18442745254502</v>
       </c>
       <c r="D12" t="n">
-        <v>1.784152124000605</v>
+        <v>1.424525444246874</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.16822743490933</v>
+        <v>80.99844114821433</v>
       </c>
       <c r="D13" t="n">
-        <v>1.633584539956504</v>
+        <v>1.484148386483207</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>80.26969586010647</v>
+        <v>80.03612228737742</v>
       </c>
       <c r="D14" t="n">
-        <v>1.529404025503567</v>
+        <v>1.41030971212038</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.78657698588884</v>
+        <v>79.02086627924128</v>
       </c>
       <c r="D15" t="n">
-        <v>1.656953604290261</v>
+        <v>1.454115107662665</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.11518710332324</v>
+        <v>77.90575104285034</v>
       </c>
       <c r="D16" t="n">
-        <v>1.3566714659249</v>
+        <v>1.516424308933209</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.47783177025896</v>
+        <v>76.99502482563021</v>
       </c>
       <c r="D17" t="n">
-        <v>1.817643125752835</v>
+        <v>1.486178125597561</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.72932829107009</v>
+        <v>75.53835223370287</v>
       </c>
       <c r="D18" t="n">
-        <v>1.686776453110643</v>
+        <v>1.547713950221452</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.7403228085426</v>
+        <v>74.89157978795366</v>
       </c>
       <c r="D19" t="n">
-        <v>1.503964479921771</v>
+        <v>1.548808171363201</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.53764649920362</v>
+        <v>73.67213869190752</v>
       </c>
       <c r="D20" t="n">
-        <v>1.763289338396488</v>
+        <v>1.629570939573712</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.79552677971834</v>
+        <v>72.72154717807592</v>
       </c>
       <c r="D21" t="n">
-        <v>1.75977596047534</v>
+        <v>1.62818663004652</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.63947365687102</v>
+        <v>71.49519944820689</v>
       </c>
       <c r="D22" t="n">
-        <v>1.542408111717669</v>
+        <v>1.463013586522055</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.40668897176994</v>
+        <v>70.30682922079741</v>
       </c>
       <c r="D23" t="n">
-        <v>1.545470392155637</v>
+        <v>1.587123195573928</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.10920890894755</v>
+        <v>69.45461968487487</v>
       </c>
       <c r="D24" t="n">
-        <v>1.648365743192585</v>
+        <v>1.563667032237523</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.30993211405068</v>
+        <v>68.6583582326486</v>
       </c>
       <c r="D25" t="n">
-        <v>1.478594540264685</v>
+        <v>1.400416501672051</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.18926707709565</v>
+        <v>67.3879388422796</v>
       </c>
       <c r="D26" t="n">
-        <v>1.653414661858858</v>
+        <v>1.499226311368433</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.64207609422101</v>
+        <v>66.11383601348192</v>
       </c>
       <c r="D27" t="n">
-        <v>1.628980222251576</v>
+        <v>1.616476362082998</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.20663262817762</v>
+        <v>64.88601960698642</v>
       </c>
       <c r="D28" t="n">
-        <v>1.755008362152407</v>
+        <v>1.51219099662011</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.15088367235082</v>
+        <v>63.9571377789111</v>
       </c>
       <c r="D29" t="n">
-        <v>1.825115477644092</v>
+        <v>1.444655853181603</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.74595456939662</v>
+        <v>62.82475586616341</v>
       </c>
       <c r="D30" t="n">
-        <v>1.541174921182433</v>
+        <v>1.41854216158187</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.16920355736875</v>
+        <v>62.05069997995796</v>
       </c>
       <c r="D31" t="n">
-        <v>1.511952667436907</v>
+        <v>1.388810410023962</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.92741035802485</v>
+        <v>60.81009249569505</v>
       </c>
       <c r="D32" t="n">
-        <v>1.586604702895683</v>
+        <v>1.393203873214366</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.83631381389923</v>
+        <v>59.7475265448445</v>
       </c>
       <c r="D33" t="n">
-        <v>1.493615954021233</v>
+        <v>1.51361772973427</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.1488840610402</v>
+        <v>58.74685824242102</v>
       </c>
       <c r="D34" t="n">
-        <v>1.532214520334987</v>
+        <v>1.403380821449212</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.98052871430247</v>
+        <v>57.6841082193169</v>
       </c>
       <c r="D35" t="n">
-        <v>1.703226734433969</v>
+        <v>1.411472047416396</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.62003480321854</v>
+        <v>56.64593139799025</v>
       </c>
       <c r="D36" t="n">
-        <v>1.310308451996083</v>
+        <v>1.466080018216695</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.72853625655641</v>
+        <v>55.84767237202582</v>
       </c>
       <c r="D37" t="n">
-        <v>1.666735111536526</v>
+        <v>1.528127768348327</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.71663583036941</v>
+        <v>54.85169142999521</v>
       </c>
       <c r="D38" t="n">
-        <v>1.425859543963744</v>
+        <v>1.458936139671777</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.83594839180544</v>
+        <v>53.55490255442135</v>
       </c>
       <c r="D39" t="n">
-        <v>1.770121608224385</v>
+        <v>1.580069086373515</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.41362625541569</v>
+        <v>52.5245766542042</v>
       </c>
       <c r="D40" t="n">
-        <v>1.655743803194301</v>
+        <v>1.366603871876543</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.45748215359433</v>
+        <v>51.78842920751062</v>
       </c>
       <c r="D41" t="n">
-        <v>1.265049415024194</v>
+        <v>1.437481061436425</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.45353686181816</v>
+        <v>50.32703374917316</v>
       </c>
       <c r="D42" t="n">
-        <v>1.641970866357318</v>
+        <v>1.457011671897272</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.48919889699091</v>
+        <v>49.35712731870257</v>
       </c>
       <c r="D43" t="n">
-        <v>1.346210060732905</v>
+        <v>1.700417055390402</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.46954066591752</v>
+        <v>48.47895941549051</v>
       </c>
       <c r="D44" t="n">
-        <v>1.647460338415865</v>
+        <v>1.461115857033214</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.3471334556669</v>
+        <v>47.40691657096704</v>
       </c>
       <c r="D45" t="n">
-        <v>1.561680305175815</v>
+        <v>1.431899930994659</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.57321503927179</v>
+        <v>46.28087355523712</v>
       </c>
       <c r="D46" t="n">
-        <v>1.819941781510062</v>
+        <v>1.5204944290189</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.37402967009778</v>
+        <v>45.12877635469884</v>
       </c>
       <c r="D47" t="n">
-        <v>1.613924902328463</v>
+        <v>1.494111410061354</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.25010979604169</v>
+        <v>44.53869533974866</v>
       </c>
       <c r="D48" t="n">
-        <v>1.54645376100089</v>
+        <v>1.64208629320249</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.15517055023712</v>
+        <v>43.27505991938593</v>
       </c>
       <c r="D49" t="n">
-        <v>1.59223827232083</v>
+        <v>1.441926161107391</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.59651457475534</v>
+        <v>42.28198295972614</v>
       </c>
       <c r="D50" t="n">
-        <v>1.395576257545377</v>
+        <v>1.475427361534175</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.24062252723495</v>
+        <v>41.50565834427514</v>
       </c>
       <c r="D51" t="n">
-        <v>1.47332794945326</v>
+        <v>1.572534960987639</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98347159443229</v>
+        <v>40.24135307117017</v>
       </c>
       <c r="D52" t="n">
-        <v>1.299225982197071</v>
+        <v>1.550208366838039</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.35244020530956</v>
+        <v>39.27753512037403</v>
       </c>
       <c r="D53" t="n">
-        <v>1.428929981435435</v>
+        <v>1.742882157964172</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.11633330274167</v>
+        <v>38.20906093458743</v>
       </c>
       <c r="D54" t="n">
-        <v>1.53145677006573</v>
+        <v>1.589986430964544</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.34951100120977</v>
+        <v>37.00648810785683</v>
       </c>
       <c r="D55" t="n">
-        <v>1.530107391003826</v>
+        <v>1.542461263563583</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.01725615079471</v>
+        <v>35.95864984772906</v>
       </c>
       <c r="D56" t="n">
-        <v>1.511436365036316</v>
+        <v>1.346703262549406</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.93605698321016</v>
+        <v>34.98748044937374</v>
       </c>
       <c r="D57" t="n">
-        <v>1.499737327924642</v>
+        <v>1.575516890929153</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.30078806904127</v>
+        <v>34.09869635947453</v>
       </c>
       <c r="D58" t="n">
-        <v>1.626253404625771</v>
+        <v>1.3961631705485</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.9612558059337</v>
+        <v>33.09605605447854</v>
       </c>
       <c r="D59" t="n">
-        <v>1.65247441330306</v>
+        <v>1.680038329744647</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.23060972759328</v>
+        <v>32.17939493753487</v>
       </c>
       <c r="D60" t="n">
-        <v>1.372835846481474</v>
+        <v>1.630109280550039</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.99188795514628</v>
+        <v>31.17269014733121</v>
       </c>
       <c r="D61" t="n">
-        <v>1.532192239114062</v>
+        <v>1.486129580182685</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.20352309535986</v>
+        <v>29.95258364629092</v>
       </c>
       <c r="D62" t="n">
-        <v>1.449069612053882</v>
+        <v>1.252474704756865</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.40821036761636</v>
+        <v>29.33756649868975</v>
       </c>
       <c r="D63" t="n">
-        <v>1.673509908067939</v>
+        <v>1.58898866094798</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.03203026079724</v>
+        <v>28.10061963661326</v>
       </c>
       <c r="D64" t="n">
-        <v>1.513890453236503</v>
+        <v>1.449009853943694</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.96450883707364</v>
+        <v>27.04212435260841</v>
       </c>
       <c r="D65" t="n">
-        <v>1.523147980798832</v>
+        <v>1.470366489090604</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.20450313308878</v>
+        <v>26.03659033913148</v>
       </c>
       <c r="D66" t="n">
-        <v>1.370391624609477</v>
+        <v>1.516042762823552</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.08529953305011</v>
+        <v>25.10564443027099</v>
       </c>
       <c r="D67" t="n">
-        <v>1.584380358348071</v>
+        <v>1.601001108975682</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.81915497388247</v>
+        <v>23.82689048749534</v>
       </c>
       <c r="D68" t="n">
-        <v>1.675161521115484</v>
+        <v>1.536952682283786</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.01711230329747</v>
+        <v>22.81801427225341</v>
       </c>
       <c r="D69" t="n">
-        <v>1.450696457281522</v>
+        <v>1.387176193529524</v>
       </c>
     </row>
   </sheetData>
